--- a/templates/winners.xlsx
+++ b/templates/winners.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aoyagi/work/tkd/tkd_competition_manager/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BBF263-FA5C-4D4A-92B7-663DE4595DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26373F49-9C61-F948-AF5D-F08B4D5C57C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7000" windowWidth="56160" windowHeight="35060" xr2:uid="{A50CA326-6442-49E4-ABDF-2F8EB85FBFB4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{A50CA326-6442-49E4-ABDF-2F8EB85FBFB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>幼年男女白帯の部</t>
   </si>
@@ -252,6 +252,49 @@
   </si>
   <si>
     <t xml:space="preserve">Male yellow belt over junior high school section </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少年最優秀選手賞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Most valuable player award junior section</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成年最優秀選手賞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Most valuable player award senior section</t>
+  </si>
+  <si>
+    <t>少年敢闘賞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fighting-spirit award junior section</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成年敢闘賞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fighting-spirit award senior section</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少年技能賞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Technique award junior section</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成年技能賞</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -615,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6902FA-7557-4CBA-BAE6-09967F16B52B}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1101,6 +1144,72 @@
         <v>65</v>
       </c>
     </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
